--- a/Blatt2/12008073_Andreas Marius Baisan_SE1-ÜB2/2.1_weiser.xlsx
+++ b/Blatt2/12008073_Andreas Marius Baisan_SE1-ÜB2/2.1_weiser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Desktop\Uni\Semester 3\KS SE1\Blatt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Desktop\Uni\Semester 3\KS SE1\Blatt2\12008073_Andreas Marius Baisan_SE1-ÜB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD1CF7A-90D4-4A2F-8CB5-4409F491E675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE6CEC-5676-408E-8658-B5FF36BD4AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{4EF04360-B113-4E58-9063-13189CF35BC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EF04360-B113-4E58-9063-13189CF35BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Zeile</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>S(4{x})</t>
+  </si>
+  <si>
+    <t>x, i</t>
+  </si>
+  <si>
+    <t>help, x</t>
+  </si>
+  <si>
+    <t>result, x, i</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +620,9 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
@@ -634,6 +646,9 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -660,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,6 +697,9 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -702,6 +720,9 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -721,6 +742,9 @@
       </c>
       <c r="F11" t="s">
         <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
